--- a/data/trans_camb/P6906-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P6906-Clase-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-10,72; 25,68</t>
+          <t>-12,26; 23,01</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,0; 36,16</t>
+          <t>-4,78; 33,69</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-21,29; 14,64</t>
+          <t>-20,92; 13,92</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-11,03; 26,05</t>
+          <t>-11,23; 25,09</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,52; 32,13</t>
+          <t>-6,1; 33,56</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-7,32; 26,8</t>
+          <t>-7,17; 27,33</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-8,18; 18,74</t>
+          <t>-6,59; 19,94</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 27,99</t>
+          <t>0,29; 28,1</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-9,56; 15,23</t>
+          <t>-9,06; 16,11</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-28,59; 109,8</t>
+          <t>-29,49; 98,61</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-14,48; 152,9</t>
+          <t>-13,82; 137,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-53,71; 63,56</t>
+          <t>-54,82; 63,7</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-34,12; 159,35</t>
+          <t>-33,13; 165,73</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-20,01; 196,77</t>
+          <t>-18,42; 206,05</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-23,09; 158,69</t>
+          <t>-20,2; 171,42</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-23,7; 81,48</t>
+          <t>-18,7; 89,83</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 113,88</t>
+          <t>-0,58; 118,55</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-27,2; 66,18</t>
+          <t>-25,52; 74,0</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-12,87; 27,15</t>
+          <t>-12,31; 25,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,58; 32,44</t>
+          <t>-12,26; 34,87</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-17,39; 19,84</t>
+          <t>-17,7; 18,76</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-21,2; 21,2</t>
+          <t>-20,2; 22,19</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-16,42; 24,78</t>
+          <t>-17,2; 24,44</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-9,86; 25,5</t>
+          <t>-10,11; 26,11</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-10,16; 18,05</t>
+          <t>-9,32; 17,92</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,91; 22,65</t>
+          <t>-6,83; 23,21</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-10,02; 16,75</t>
+          <t>-9,63; 16,45</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-45,9; 257,35</t>
+          <t>-48,41; 214,41</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-45,19; 280,57</t>
+          <t>-45,52; 334,74</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-65,26; 217,42</t>
+          <t>-64,34; 184,61</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-73,34; 158,79</t>
+          <t>-68,57; 147,86</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-57,54; 178,21</t>
+          <t>-55,42; 183,24</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-33,11; 219,23</t>
+          <t>-30,49; 202,22</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-38,36; 115,3</t>
+          <t>-36,68; 121,17</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-24,55; 157,62</t>
+          <t>-26,23; 173,91</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-35,15; 117,71</t>
+          <t>-34,3; 119,14</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-20,61; 6,57</t>
+          <t>-20,7; 6,87</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-23,77; 4,19</t>
+          <t>-21,84; 5,82</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-24,72; 7,15</t>
+          <t>-24,62; 6,64</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-18,33; 37,17</t>
+          <t>-14,93; 37,27</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,85; 70,59</t>
+          <t>-8,32; 64,66</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-16,24; 39,28</t>
+          <t>-11,66; 39,76</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-15,08; 8,64</t>
+          <t>-16,28; 7,9</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-17,04; 11,11</t>
+          <t>-16,75; 8,38</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-19,09; 7,87</t>
+          <t>-18,96; 6,63</t>
         </is>
       </c>
     </row>
@@ -1223,17 +1223,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-57,73; 30,34</t>
+          <t>-58,41; 29,29</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-67,67; 18,34</t>
+          <t>-64,53; 30,84</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-73,12; 36,02</t>
+          <t>-73,25; 30,29</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1253,17 +1253,17 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-46,98; 45,65</t>
+          <t>-48,72; 38,97</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-54,52; 53,98</t>
+          <t>-55,5; 42,34</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-60,91; 38,08</t>
+          <t>-59,37; 35,63</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-7,23; 13,08</t>
+          <t>-8,8; 12,05</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,74; 12,93</t>
+          <t>-7,11; 12,04</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,56; 11,63</t>
+          <t>-8,11; 11,4</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-14,11; 20,37</t>
+          <t>-14,35; 17,64</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-8,33; 23,7</t>
+          <t>-7,52; 23,34</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-15,56; 13,12</t>
+          <t>-15,63; 12,9</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 12,54</t>
+          <t>-4,62; 12,77</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 14,23</t>
+          <t>-1,41; 14,03</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-5,91; 8,76</t>
+          <t>-5,84; 9,42</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-30,38; 79,56</t>
+          <t>-35,28; 73,6</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-28,12; 77,57</t>
+          <t>-27,69; 76,5</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-35,3; 72,78</t>
+          <t>-33,59; 70,64</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-38,69; 120,4</t>
+          <t>-41,0; 100,93</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-24,43; 152,51</t>
+          <t>-23,2; 133,56</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-43,15; 80,13</t>
+          <t>-41,34; 75,76</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-17,78; 70,69</t>
+          <t>-18,98; 72,43</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-6,34; 83,6</t>
+          <t>-5,42; 81,76</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-22,63; 50,53</t>
+          <t>-24,15; 54,15</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 33,02</t>
+          <t>-1,13; 31,34</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-13,89; 9,2</t>
+          <t>-14,74; 8,97</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-17,73; 5,1</t>
+          <t>-17,63; 5,26</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 35,06</t>
+          <t>-0,95; 35,52</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-7,15; 23,41</t>
+          <t>-5,89; 26,05</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-15,23; 12,78</t>
+          <t>-17,16; 10,84</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>3,3; 27,84</t>
+          <t>2,88; 27,47</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-8,67; 11,59</t>
+          <t>-8,76; 9,97</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-10,12; 7,87</t>
+          <t>-10,02; 7,79</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-17,26; 573,48</t>
+          <t>-17,39; 519,26</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-79,39; 163,25</t>
+          <t>-80,87; 162,42</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 149,96</t>
+          <t>-100,0; 152,36</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-14,13; 344,53</t>
+          <t>-9,58; 350,8</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-35,55; 212,24</t>
+          <t>-28,69; 230,0</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-62,02; 105,8</t>
+          <t>-61,45; 88,53</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>16,23; 270,47</t>
+          <t>14,96; 276,6</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-44,89; 114,24</t>
+          <t>-44,52; 94,45</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-52,36; 74,06</t>
+          <t>-50,82; 71,44</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 9,86</t>
+          <t>-3,14; 9,55</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-5,1; 7,65</t>
+          <t>-5,03; 7,37</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-9,83; 2,52</t>
+          <t>-9,4; 3,0</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 15,94</t>
+          <t>-0,73; 16,64</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>3,18; 19,01</t>
+          <t>2,68; 19,31</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-5,33; 10,6</t>
+          <t>-5,68; 11,13</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>0,02; 9,98</t>
+          <t>0,21; 10,55</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>0,24; 10,14</t>
+          <t>0,32; 10,4</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-4,98; 4,79</t>
+          <t>-5,43; 4,37</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-10,88; 48,34</t>
+          <t>-12,59; 45,57</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-19,97; 37,24</t>
+          <t>-20,12; 36,23</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-38,71; 12,57</t>
+          <t>-37,97; 14,6</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 89,47</t>
+          <t>-2,97; 94,27</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>11,75; 106,57</t>
+          <t>10,84; 111,27</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-19,83; 58,47</t>
+          <t>-19,66; 62,03</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>0,11; 50,41</t>
+          <t>0,85; 51,52</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>1,01; 49,18</t>
+          <t>1,12; 50,55</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-20,79; 23,77</t>
+          <t>-22,16; 22,36</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P6906-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P6906-Clase-trans_camb.xlsx
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
